--- a/模板/三包配件与电机入库退货单--模板.xlsx
+++ b/模板/三包配件与电机入库退货单--模板.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27952" windowHeight="12255" tabRatio="456"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="456"/>
   </bookViews>
   <sheets>
     <sheet name="售后三包出库 " sheetId="85" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'售后三包出库 '!$A$1:$M$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'售后三包出库 '!$A$1:$M$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'售后三包出库 '!$A$1:$M$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'售后三包出库 '!$A$1:$M$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
   <si>
     <t>南方泵业股份有限公司售后三包配件/电机入库模板</t>
   </si>
@@ -219,142 +219,6 @@
   </si>
   <si>
     <t>使用问题</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导叶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|CDLK2-04-00|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抛光加厚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|304</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叶轮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|CDL2A-04-00|304</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导流器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|CDLK2-04-01|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抛光</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加厚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|304</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导叶壳体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|CDLK2-03-00|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抛光加厚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>|304</t>
-    </r>
   </si>
   <si>
     <t>合计：</t>
@@ -1527,12 +1391,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1651,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" ref="H4:H9" si="0">F4*G4</f>
+        <f>F4*G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="16">
@@ -1693,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="16">
-        <f t="shared" si="0"/>
+        <f>F5*G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="16">
@@ -1712,7 +1576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:13">
+    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1723,19 +1587,19 @@
         <v>16</v>
       </c>
       <c r="D6" s="13">
-        <v>1400009535</v>
+        <v>1400006330</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="15">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3</v>
       </c>
       <c r="G6" s="16">
         <v>0</v>
       </c>
       <c r="H6" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H6:H25" si="0">F6*G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="16">
@@ -1754,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:13">
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -1765,13 +1629,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="13">
-        <v>1400008328</v>
+        <v>1400006330</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="15">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3</v>
       </c>
       <c r="G7" s="16">
         <v>0</v>
@@ -1796,7 +1660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:13">
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1807,13 +1671,13 @@
         <v>16</v>
       </c>
       <c r="D8" s="13">
-        <v>1400006462</v>
+        <v>1400006330</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3</v>
       </c>
       <c r="G8" s="16">
         <v>0</v>
@@ -1838,7 +1702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:13">
+    <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -1849,13 +1713,13 @@
         <v>16</v>
       </c>
       <c r="D9" s="13">
-        <v>1400009432</v>
+        <v>1400006330</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="14">
+        <v>3</v>
       </c>
       <c r="G9" s="16">
         <v>0</v>
@@ -1881,107 +1745,779 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="9" t="s">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14">
+        <v>3</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L10" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L11" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L12" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L13" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L14" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L15" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="14">
+        <v>3</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L16" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="14">
+        <v>3</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L17" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="14">
+        <v>3</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L18" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="14">
+        <v>3</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L19" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L20" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="14">
+        <v>3</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L21" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L22" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="14">
+        <v>3</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L23" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="14">
+        <v>3</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L24" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11">
+        <v>20091939</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1400006330</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="14">
+        <v>3</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="16">
+        <v>1072</v>
+      </c>
+      <c r="L25" s="16">
+        <v>5101</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="20">
+        <f>SUM(F4:F5)</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="51" customHeight="1" spans="1:13">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="20">
-        <f>SUM(F4:F9)</f>
-        <v>54</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="51" customHeight="1" spans="1:13">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
+      <c r="E28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21" t="s">
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" s="3" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="33" customHeight="1" spans="1:13">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:13">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A29:M29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
